--- a/students_data.xlsx
+++ b/students_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\ppl_email_sender\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\gmail_email_sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADB0948-F0E9-43BF-B3D2-56AABD7BC8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86804B7-03FF-47F4-9F8B-EF8C3547B71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C5B6296-0F58-4598-B970-678BD8D08510}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -49,13 +49,58 @@
   </si>
   <si>
     <t>sabih.sk1</t>
+  </si>
+  <si>
+    <t>Afnan Yousuf</t>
+  </si>
+  <si>
+    <t>afnanyousuf@logicracks.co.uk</t>
+  </si>
+  <si>
+    <t>logicracksh</t>
+  </si>
+  <si>
+    <t>Faculty SFC</t>
+  </si>
+  <si>
+    <t>facultysfc@gmail.com</t>
+  </si>
+  <si>
+    <t>facultysfctya</t>
+  </si>
+  <si>
+    <t>Ali Bin Ejaz</t>
+  </si>
+  <si>
+    <t>ali.ejaz@xloopdigital.com</t>
+  </si>
+  <si>
+    <t>alirbinejaz</t>
+  </si>
+  <si>
+    <t>Nayab Ahmed</t>
+  </si>
+  <si>
+    <t>nayab.ahmed@xloopdigital.com</t>
+  </si>
+  <si>
+    <t>nayabxloopq</t>
+  </si>
+  <si>
+    <t>Daniyal Abbasi</t>
+  </si>
+  <si>
+    <t>daniyal.abbasi.xp@gmail.com</t>
+  </si>
+  <si>
+    <t>daniyalabbasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +128,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -186,6 +237,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -503,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1010F287-6EC2-4A9D-BAE0-78176EF09345}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -545,6 +605,76 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F366D874-C388-4D02-AE61-BDD2C8E5CA7F}"/>
